--- a/Figure2/data/F2_info.xlsx
+++ b/Figure2/data/F2_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FAXP\Figure1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dell\Documents\GitHub\TO_PUBLIC\FAXP\Figure2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7E7541-497B-4F1A-AFF2-97ED5FDAD337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810ADAC-FE05-4CB0-A971-94BB0F7EC322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="2850" windowWidth="18030" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2910" windowWidth="21390" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Label in file</t>
   </si>
@@ -61,19 +61,6 @@
   </si>
   <si>
     <t>No.4</t>
-  </si>
-  <si>
-    <t>针对Condition 1：
-_1-4为1块胶的1/4部分；
-针对Condition 2-5：
-_1/2为Gel 1的两个重复；
-_3/4为Gel 2的两个重复；
-_5/6为Gel 3的两个重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -113,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,32 +123,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,81 +415,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
